--- a/document/database.xlsx
+++ b/document/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web-php\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6C27DE-0264-45C6-8DF0-149B18DF5029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ED46AE-0E29-48FD-BB85-507016F66D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4236" yWindow="696" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>users</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>carts</t>
+  </si>
+  <si>
+    <t>type_payment</t>
+  </si>
+  <si>
+    <t>COD/TRANFER</t>
   </si>
 </sst>
 </file>
@@ -498,14 +504,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.796875" style="4"/>
+    <col min="1" max="1" width="14.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="4"/>
     <col min="4" max="4" width="11.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.59765625" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.59765625" style="4" bestFit="1" customWidth="1"/>
@@ -705,11 +712,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>15</v>
+      <c r="A20" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>24</v>
@@ -718,8 +725,11 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>29</v>
+      <c r="A21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>25</v>
@@ -727,17 +737,19 @@
       <c r="H21" s="8"/>
       <c r="I21" s="2"/>
     </row>
+    <row r="22" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="24" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>2</v>
+      <c r="A25" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>2</v>
@@ -745,22 +757,24 @@
     </row>
     <row r="26" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>29</v>
+      <c r="A27" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
+      <c r="A28" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="F28" s="9" t="s">
         <v>24</v>
       </c>

--- a/document/database.xlsx
+++ b/document/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web-php\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ED46AE-0E29-48FD-BB85-507016F66D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369206C5-54A9-42C4-A41C-8A9F234F8ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4584" yWindow="1044" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>users</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>COD/TRANFER</t>
+  </si>
+  <si>
+    <t>cart_id</t>
   </si>
 </sst>
 </file>
@@ -504,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -776,7 +779,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
